--- a/planilha/marco/Escala ASO1 - Lagoinha - 1° Turno - Março.xlsx
+++ b/planilha/marco/Escala ASO1 - Lagoinha - 1° Turno - Março.xlsx
@@ -109,13 +109,13 @@
     <t>Ana Raquel</t>
   </si>
   <si>
-    <t>Marco Alves</t>
+    <t>Pedro Rodrigues</t>
   </si>
   <si>
     <t>Leo Albuquerque</t>
   </si>
   <si>
-    <t>28/02/20</t>
+    <t>03/03/20</t>
   </si>
 </sst>
 </file>
@@ -806,19 +806,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>19</v>
@@ -830,28 +830,28 @@
         <v>19</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="N4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S4" s="4" t="s">
         <v>19</v>
@@ -863,22 +863,22 @@
         <v>13</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB4" s="3" t="s">
         <v>7</v>
@@ -893,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AG4" s="3" t="s">
         <v>9</v>
@@ -951,22 +951,22 @@
         <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>19</v>
@@ -981,25 +981,25 @@
         <v>14</v>
       </c>
       <c r="M5" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q5" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="R5" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>19</v>
@@ -1008,28 +1008,28 @@
         <v>19</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z5" s="4" t="s">
         <v>19</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="AB5" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD5" s="4" t="s">
         <v>19</v>
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>19</v>
@@ -1120,13 +1120,13 @@
         <v>19</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>19</v>
@@ -1135,13 +1135,13 @@
         <v>8</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>19</v>
@@ -1150,16 +1150,16 @@
         <v>19</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>19</v>
@@ -1168,10 +1168,10 @@
         <v>14</v>
       </c>
       <c r="AA6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB6" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AC6" s="4" t="s">
         <v>19</v>
@@ -1183,10 +1183,10 @@
         <v>19</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AH6" s="3" t="n"/>
       <c r="AI6" s="3" t="n"/>
@@ -1241,19 +1241,19 @@
         <v>18</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H7" s="4" t="s">
         <v>19</v>
@@ -1265,13 +1265,13 @@
         <v>19</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="M7" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N7" s="4" t="s">
         <v>19</v>
@@ -1280,13 +1280,13 @@
         <v>13</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>19</v>
@@ -1295,16 +1295,16 @@
         <v>19</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X7" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>19</v>
@@ -1313,10 +1313,10 @@
         <v>7</v>
       </c>
       <c r="AA7" s="5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AB7" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AC7" s="4" t="s">
         <v>19</v>
@@ -1328,10 +1328,10 @@
         <v>19</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AH7" s="5" t="n"/>
       <c r="AI7" s="5" t="n"/>
@@ -1386,19 +1386,19 @@
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>19</v>
@@ -1410,28 +1410,28 @@
         <v>19</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>19</v>
@@ -1440,28 +1440,28 @@
         <v>19</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Y8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AA8" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AB8" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AC8" s="4" t="s">
         <v>19</v>
@@ -1473,10 +1473,10 @@
         <v>19</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AH8" s="3" t="n"/>
       <c r="AI8" s="3" t="n"/>
@@ -1532,7 +1532,7 @@
       </c>
       <c r="C9" s="5" t="s"/>
       <c r="D9" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>19</v>
@@ -1542,13 +1542,13 @@
       </c>
       <c r="G9" s="5" t="s"/>
       <c r="H9" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>19</v>
@@ -1556,7 +1556,7 @@
       <c r="L9" s="5" t="s"/>
       <c r="M9" s="5" t="s"/>
       <c r="N9" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>19</v>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="R9" s="5" t="s"/>
       <c r="S9" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T9" s="5" t="s">
         <v>8</v>
@@ -1591,13 +1591,13 @@
       </c>
       <c r="AB9" s="5" t="s"/>
       <c r="AC9" s="5" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AD9" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF9" s="4" t="s">
         <v>19</v>
@@ -1668,13 +1668,13 @@
       </c>
       <c r="H10" s="3" t="s"/>
       <c r="I10" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>19</v>
@@ -1695,10 +1695,10 @@
       </c>
       <c r="S10" s="3" t="s"/>
       <c r="T10" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="U10" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>19</v>
@@ -1717,13 +1717,13 @@
       </c>
       <c r="AC10" s="3" t="s"/>
       <c r="AD10" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG10" s="4" t="s">
         <v>19</v>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="C11" s="5" t="s"/>
       <c r="D11" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>19</v>
@@ -1795,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>14</v>
@@ -1819,7 +1819,7 @@
       </c>
       <c r="R11" s="5" t="s"/>
       <c r="S11" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T11" s="5" t="s">
         <v>13</v>
@@ -1831,7 +1831,7 @@
       <c r="W11" s="5" t="s"/>
       <c r="X11" s="5" t="s"/>
       <c r="Y11" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="Z11" s="4" t="s">
         <v>19</v>
@@ -1841,13 +1841,13 @@
       </c>
       <c r="AB11" s="5" t="s"/>
       <c r="AC11" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AD11" s="5" t="s">
         <v>7</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AF11" s="4" t="s">
         <v>19</v>
@@ -1923,7 +1923,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K12" s="4" t="s">
         <v>19</v>
@@ -1931,7 +1931,7 @@
       <c r="L12" s="3" t="s"/>
       <c r="M12" s="3" t="s"/>
       <c r="N12" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>19</v>
@@ -1944,10 +1944,10 @@
       </c>
       <c r="R12" s="3" t="s"/>
       <c r="S12" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="U12" s="4" t="s">
         <v>19</v>
@@ -1956,7 +1956,7 @@
       <c r="W12" s="3" t="s"/>
       <c r="X12" s="3" t="s"/>
       <c r="Y12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>19</v>
@@ -1966,13 +1966,13 @@
       </c>
       <c r="AB12" s="3" t="s"/>
       <c r="AC12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD12" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE12" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AF12" s="4" t="s">
         <v>19</v>
@@ -2032,7 +2032,7 @@
       </c>
       <c r="C13" s="5" t="s"/>
       <c r="D13" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>19</v>
@@ -2042,13 +2042,13 @@
       </c>
       <c r="G13" s="5" t="s"/>
       <c r="H13" s="5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K13" s="4" t="s">
         <v>19</v>
@@ -2056,7 +2056,7 @@
       <c r="L13" s="5" t="s"/>
       <c r="M13" s="5" t="s"/>
       <c r="N13" s="5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="O13" s="4" t="s">
         <v>19</v>
@@ -2069,10 +2069,10 @@
       </c>
       <c r="R13" s="5" t="s"/>
       <c r="S13" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>19</v>
@@ -2081,7 +2081,7 @@
       <c r="W13" s="5" t="s"/>
       <c r="X13" s="5" t="s"/>
       <c r="Y13" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>19</v>
@@ -2091,10 +2091,10 @@
       </c>
       <c r="AB13" s="5" t="s"/>
       <c r="AC13" s="5" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AD13" s="5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AE13" s="5" t="s">
         <v>9</v>
